--- a/PayrollProject/templates/CourtOrderMultiplePriorityInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderMultiplePriorityInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\Desktop\Latest provar zip file\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ACA4CB-F7D1-4C3B-9BE1-9E1397EB4FD5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74768024-839A-4987-ACE3-D9FF601DF376}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="2" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="3" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -59,15 +59,9 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>October-2018</t>
-  </si>
-  <si>
     <t>C Employees over State pension age (attach passport/birth certificate)</t>
   </si>
   <si>
-    <t>November-2018</t>
-  </si>
-  <si>
     <t>DO NOT TOUCH AUTOMATION EMP 121</t>
   </si>
   <si>
@@ -80,19 +74,25 @@
     <t>DO NOT Multple2Priorty Oct</t>
   </si>
   <si>
-    <t>December-2018</t>
-  </si>
-  <si>
     <t>DO NOT Multple2Priorty Dec</t>
   </si>
   <si>
     <t>DO NOT Multple2Priorty Nov</t>
   </si>
   <si>
-    <t>January-2019</t>
-  </si>
-  <si>
     <t>DO NOT Multple2Priorty Jan</t>
+  </si>
+  <si>
+    <t>December-2019</t>
+  </si>
+  <si>
+    <t>January-2020</t>
+  </si>
+  <si>
+    <t>November-2019</t>
+  </si>
+  <si>
+    <t>October-2019</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656F5891-C399-4E72-BDAD-0F4BF0D31C04}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,25 +522,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +554,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,25 +593,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EA23F3-4A4A-4847-A439-A830DE774DFB}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,25 +667,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC39E909-6877-4DED-BCAE-B269BC6065ED}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,25 +741,25 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
